--- a/Work Progress.xlsx
+++ b/Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>13.05.2024</t>
   </si>
@@ -35,7 +35,13 @@
     <t>Projektiga alustamine. Registreerimine Githubis ja Jiras.                                   Projekti jaoks oluliste plaanide kirjutamine.        Kood on kirjutatud.        Lisatud taust, tekst ja märk.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jätkake koodi kirjutamist. Lisatud pildid ja joonised tegelastele. </t>
+    <t>Jätkake koodi kirjutamist. Lisatud pildid ja joonised tegelastele.                        Tausta pildite teeme esimesed fotod.</t>
+  </si>
+  <si>
+    <t>20.05.2024</t>
+  </si>
+  <si>
+    <t>Uus plaan ellu viia.                     Mängu süžeeplaan on kirjutatud.                                      Dialoogi koostamine.                Alustage tegelaste joonistamist.</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,12 +382,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Work Progress.xlsx
+++ b/Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupil\Desktop\JPTV23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>13.05.2024</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>Uus plaan ellu viia.                     Mängu süžeeplaan on kirjutatud.                                      Dialoogi koostamine.                Alustage tegelaste joonistamist.</t>
+  </si>
+  <si>
+    <t>24.05.2024</t>
+  </si>
+  <si>
+    <t>veel tausta piltide tegemine, tegelaste arutamine, nende teema, stiili jne. Valimine, esmaste tegelaste visandite tegemine ja dialoogi tegemine</t>
+  </si>
+  <si>
+    <t>26.05.2024</t>
+  </si>
+  <si>
+    <t>tegelaste joonistamine, proovikoodi ümber kirjutamine</t>
+  </si>
+  <si>
+    <t>27.05.2024</t>
+  </si>
+  <si>
+    <t>Jätkasime dialooge. Taustapiltide tegemine</t>
   </si>
 </sst>
 </file>
@@ -362,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +416,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work Progress.xlsx
+++ b/Work Progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupil\Desktop\JPTV23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>13.05.2024</t>
   </si>
@@ -59,7 +59,19 @@
     <t>27.05.2024</t>
   </si>
   <si>
-    <t>Jätkasime dialooge. Taustapiltide tegemine</t>
+    <t>31.05.2024</t>
+  </si>
+  <si>
+    <t>Rohkem teksti.                            Lisatud emotsioone mõne tegelase jaoks.                             Tähemärkide lisamine koodile</t>
+  </si>
+  <si>
+    <t>Jätkasime dialooge. Taustapiltide tegemine.          Joonistasin tegelastele emotsioone.</t>
+  </si>
+  <si>
+    <t>28.05.2024</t>
+  </si>
+  <si>
+    <t>Joonistasin tegelastele emotsioone.</t>
   </si>
 </sst>
 </file>
@@ -380,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,12 +444,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Work Progress.xlsx
+++ b/Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>13.05.2024</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>Joonistasin tegelastele emotsioone.</t>
+  </si>
+  <si>
+    <t>13.06.2024</t>
+  </si>
+  <si>
+    <t>Koodile on tehtud viimane lihv.                                                   Viimane tegelane lisatud.</t>
+  </si>
+  <si>
+    <t>12.06.2024</t>
+  </si>
+  <si>
+    <t>Kogu dialoogi muutmine.</t>
+  </si>
+  <si>
+    <t>05.06.2024</t>
+  </si>
+  <si>
+    <t>03.06.2024</t>
+  </si>
+  <si>
+    <t>Viimane dialoog on kirjutatud.</t>
+  </si>
+  <si>
+    <t>Klasside ja piltide lisamine tegelastele.                                     Mängule lõppude lisamine.</t>
   </si>
 </sst>
 </file>
@@ -392,16 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -468,6 +492,38 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
